--- a/ExcelToNLS/excel/translations.xlsx
+++ b/ExcelToNLS/excel/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\NLS_examples_migration\Tool-Excel-to-NLS\Excel-to-NLS\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stinlot\Documents\gitlab\Example-NLS\ExcelToNLS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93AF63A-5D45-44F9-BD67-01F5664230B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC22462-E536-4577-AF10-E32260812DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en_US" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Español</t>
   </si>
   <si>
-    <t>es_FR</t>
-  </si>
-  <si>
     <t>Hola</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Ça va ?</t>
+  </si>
+  <si>
+    <t>es_ES</t>
   </si>
 </sst>
 </file>
@@ -424,11 +424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,10 +467,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -483,11 +483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,10 +526,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,15 +579,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
